--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3245805.309627728</v>
+        <v>3243588.133188729</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.05440017086973</v>
+        <v>196.0317008407719</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.6902672888099</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>71.45324723944323</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.5735823537993</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.6312528396099</v>
       </c>
       <c r="U2" t="n">
-        <v>75.97198965043358</v>
+        <v>251.2457859202953</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>66.70339153353734</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>32.82573506391007</v>
+        <v>136.6755978001917</v>
       </c>
       <c r="H3" t="n">
-        <v>105.7847493357609</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.40028636150856</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.2768618828501</v>
       </c>
       <c r="T3" t="n">
         <v>197.4725449465128</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>127.5435643264389</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>152.1155015320359</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>190.188891093078</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.8950372953905</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>273.0065037122686</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>55.71969997626057</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>70.80276983270129</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>41.55655943207737</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>169.6822018002577</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.90187484148903</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589029</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247741</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>113.5103646250801</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>55.42986125998468</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589034</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.2480341124474</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.601081015447603</v>
+        <v>88.9321526700474</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,19 +1850,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247741</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>94.69859409301593</v>
       </c>
       <c r="X19" t="n">
-        <v>120.6353666620236</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,16 +2090,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292602</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3505483447207</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U22" t="n">
-        <v>67.41386939711219</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491544</v>
       </c>
       <c r="U25" t="n">
-        <v>181.1375494785994</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,16 +2716,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.225757137646</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>181.1375494785993</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>177.7766012698054</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>181.4487096095773</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C34" t="n">
-        <v>17.86119194381502</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2191399893758</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>118.0376296177326</v>
+        <v>2.12980443524809</v>
       </c>
       <c r="F34" t="n">
-        <v>117.0247149940947</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121075</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S34" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T34" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U34" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V34" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W34" t="n">
         <v>258.1266653077544</v>
       </c>
       <c r="X34" t="n">
-        <v>197.3133223602006</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>354.337508634644</v>
+        <v>354.3375086346439</v>
       </c>
       <c r="C35" t="n">
-        <v>336.876558742171</v>
+        <v>336.8765587421709</v>
       </c>
       <c r="D35" t="n">
-        <v>326.2867085918464</v>
+        <v>326.2867085918463</v>
       </c>
       <c r="E35" t="n">
-        <v>353.5340370434252</v>
+        <v>353.5340370434251</v>
       </c>
       <c r="F35" t="n">
-        <v>378.479712712876</v>
+        <v>378.4797127128748</v>
       </c>
       <c r="G35" t="n">
-        <v>382.5253926246169</v>
+        <v>382.5253926246168</v>
       </c>
       <c r="H35" t="n">
-        <v>266.2114313584839</v>
+        <v>266.2114313584838</v>
       </c>
       <c r="I35" t="n">
-        <v>13.18059674408937</v>
+        <v>13.18059674408929</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.79142875933925</v>
+        <v>80.79142875933917</v>
       </c>
       <c r="T35" t="n">
-        <v>175.5216371107836</v>
+        <v>175.5216371107835</v>
       </c>
       <c r="U35" t="n">
-        <v>222.5988389300654</v>
+        <v>222.5988389300653</v>
       </c>
       <c r="V35" t="n">
         <v>299.3559254412983</v>
@@ -3329,10 +3329,10 @@
         <v>320.8446356885764</v>
       </c>
       <c r="X35" t="n">
-        <v>341.3347676496325</v>
+        <v>341.3347676496313</v>
       </c>
       <c r="Y35" t="n">
-        <v>357.841605627217</v>
+        <v>357.8416056272169</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
-        <v>51.1984320483398</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>67.9560873810015</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121075</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S37" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T37" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U37" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V37" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W37" t="n">
         <v>258.1266653077544</v>
       </c>
       <c r="X37" t="n">
-        <v>197.3133223602006</v>
+        <v>105.8008082348597</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>354.337508634644</v>
+        <v>354.3375086346439</v>
       </c>
       <c r="C38" t="n">
-        <v>336.876558742171</v>
+        <v>336.8765587421709</v>
       </c>
       <c r="D38" t="n">
-        <v>326.2867085918464</v>
+        <v>326.2867085918463</v>
       </c>
       <c r="E38" t="n">
-        <v>353.5340370434252</v>
+        <v>353.5340370434251</v>
       </c>
       <c r="F38" t="n">
-        <v>378.4797127128749</v>
+        <v>378.4797127128748</v>
       </c>
       <c r="G38" t="n">
-        <v>382.5253926246169</v>
+        <v>382.5253926246168</v>
       </c>
       <c r="H38" t="n">
-        <v>266.2114313584839</v>
+        <v>266.2114313584838</v>
       </c>
       <c r="I38" t="n">
-        <v>13.18059674408937</v>
+        <v>13.18059674408929</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.79142875933925</v>
+        <v>80.79142875933917</v>
       </c>
       <c r="T38" t="n">
-        <v>175.5216371107836</v>
+        <v>175.5216371107835</v>
       </c>
       <c r="U38" t="n">
-        <v>222.5988389300654</v>
+        <v>222.5988389300643</v>
       </c>
       <c r="V38" t="n">
-        <v>299.3559254412992</v>
+        <v>299.3559254412983</v>
       </c>
       <c r="W38" t="n">
         <v>320.8446356885764</v>
       </c>
       <c r="X38" t="n">
-        <v>341.3347676496325</v>
+        <v>341.3347676496324</v>
       </c>
       <c r="Y38" t="n">
-        <v>357.841605627217</v>
+        <v>357.8416056272169</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697913</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>96.66271324503434</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121074</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S40" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T40" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U40" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V40" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W40" t="n">
         <v>258.1266653077544</v>
       </c>
       <c r="X40" t="n">
-        <v>197.3133223602006</v>
+        <v>127.071601579567</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>354.337508634644</v>
+        <v>354.3375086346439</v>
       </c>
       <c r="C41" t="n">
-        <v>336.876558742171</v>
+        <v>336.8765587421709</v>
       </c>
       <c r="D41" t="n">
-        <v>326.2867085918464</v>
+        <v>326.2867085918463</v>
       </c>
       <c r="E41" t="n">
-        <v>353.5340370434252</v>
+        <v>353.5340370434251</v>
       </c>
       <c r="F41" t="n">
-        <v>378.4797127128749</v>
+        <v>378.4797127128748</v>
       </c>
       <c r="G41" t="n">
-        <v>382.5253926246169</v>
+        <v>382.5253926246168</v>
       </c>
       <c r="H41" t="n">
-        <v>266.2114313584839</v>
+        <v>266.2114313584838</v>
       </c>
       <c r="I41" t="n">
-        <v>13.18059674408937</v>
+        <v>13.18059674408929</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.79142875933925</v>
+        <v>80.79142875933917</v>
       </c>
       <c r="T41" t="n">
-        <v>175.5216371107836</v>
+        <v>175.5216371107835</v>
       </c>
       <c r="U41" t="n">
-        <v>222.5988389300654</v>
+        <v>222.5988389300653</v>
       </c>
       <c r="V41" t="n">
-        <v>299.3559254412992</v>
+        <v>299.3559254412983</v>
       </c>
       <c r="W41" t="n">
         <v>320.8446356885764</v>
       </c>
       <c r="X41" t="n">
-        <v>341.3347676496325</v>
+        <v>341.3347676496324</v>
       </c>
       <c r="Y41" t="n">
-        <v>357.841605627217</v>
+        <v>357.8416056272169</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C43" t="n">
-        <v>138.8504880697913</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>120.2191399893758</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
-        <v>32.77718903424645</v>
+        <v>66.92981955690907</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100151</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121074</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T43" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U43" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V43" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W43" t="n">
         <v>258.1266653077544</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>354.337508634644</v>
+        <v>354.3375086346439</v>
       </c>
       <c r="C44" t="n">
-        <v>336.876558742171</v>
+        <v>336.8765587421709</v>
       </c>
       <c r="D44" t="n">
-        <v>326.2867085918464</v>
+        <v>326.2867085918463</v>
       </c>
       <c r="E44" t="n">
-        <v>353.5340370434252</v>
+        <v>353.5340370434251</v>
       </c>
       <c r="F44" t="n">
-        <v>378.4797127128749</v>
+        <v>378.4797127128748</v>
       </c>
       <c r="G44" t="n">
-        <v>382.5253926246169</v>
+        <v>382.5253926246168</v>
       </c>
       <c r="H44" t="n">
-        <v>266.2114313584839</v>
+        <v>266.2114313584838</v>
       </c>
       <c r="I44" t="n">
-        <v>13.18059674408936</v>
+        <v>13.18059674408929</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.79142875933924</v>
+        <v>80.79142875933917</v>
       </c>
       <c r="T44" t="n">
-        <v>175.5216371107836</v>
+        <v>175.5216371107835</v>
       </c>
       <c r="U44" t="n">
-        <v>222.5988389300654</v>
+        <v>222.5988389300653</v>
       </c>
       <c r="V44" t="n">
         <v>299.3559254412983</v>
@@ -4040,10 +4040,10 @@
         <v>320.8446356885764</v>
       </c>
       <c r="X44" t="n">
-        <v>341.3347676496325</v>
+        <v>341.3347676496324</v>
       </c>
       <c r="Y44" t="n">
-        <v>357.841605627217</v>
+        <v>357.8416056272169</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C46" t="n">
-        <v>138.8504880697913</v>
+        <v>51.19843204834159</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>28.70662586403306</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I46" t="n">
-        <v>67.9560873810015</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121074</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S46" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T46" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U46" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V46" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W46" t="n">
         <v>258.1266653077544</v>
       </c>
       <c r="X46" t="n">
-        <v>197.3133223602006</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1216.932221619023</v>
+        <v>582.6434905743438</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.932221619023</v>
+        <v>582.6434905743438</v>
       </c>
       <c r="D2" t="n">
-        <v>858.6665230122728</v>
+        <v>582.6434905743438</v>
       </c>
       <c r="E2" t="n">
-        <v>472.8782704140285</v>
+        <v>582.6434905743438</v>
       </c>
       <c r="F2" t="n">
-        <v>61.89236562442096</v>
+        <v>575.6979898251403</v>
       </c>
       <c r="G2" t="n">
-        <v>47.69600181546164</v>
+        <v>377.6861707940575</v>
       </c>
       <c r="H2" t="n">
-        <v>47.69600181546164</v>
+        <v>47.69600181546161</v>
       </c>
       <c r="I2" t="n">
-        <v>47.69600181546164</v>
+        <v>47.69600181546161</v>
       </c>
       <c r="J2" t="n">
         <v>140.7577663105058</v>
       </c>
       <c r="K2" t="n">
-        <v>400.9780317624623</v>
+        <v>400.978031762462</v>
       </c>
       <c r="L2" t="n">
-        <v>776.0809088477192</v>
+        <v>776.0809088477189</v>
       </c>
       <c r="M2" t="n">
         <v>1210.061679664839</v>
@@ -4343,37 +4343,37 @@
         <v>1636.432715520894</v>
       </c>
       <c r="O2" t="n">
-        <v>1993.85515638999</v>
+        <v>1993.855156389989</v>
       </c>
       <c r="P2" t="n">
-        <v>2261.232557503805</v>
+        <v>2261.232557503803</v>
       </c>
       <c r="Q2" t="n">
-        <v>2384.800090773082</v>
+        <v>2384.80009077308</v>
       </c>
       <c r="R2" t="n">
-        <v>2384.800090773082</v>
+        <v>2312.625093561521</v>
       </c>
       <c r="S2" t="n">
-        <v>2384.800090773082</v>
+        <v>2130.227535628391</v>
       </c>
       <c r="T2" t="n">
-        <v>2384.800090773082</v>
+        <v>1910.397987305553</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.060707287796</v>
+        <v>1656.61436516384</v>
       </c>
       <c r="V2" t="n">
-        <v>1976.997819944225</v>
+        <v>1325.55147782027</v>
       </c>
       <c r="W2" t="n">
-        <v>1976.997819944225</v>
+        <v>972.7828225501555</v>
       </c>
       <c r="X2" t="n">
-        <v>1603.532061683145</v>
+        <v>972.7828225501555</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.532061683145</v>
+        <v>582.6434905743438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>883.9370403638645</v>
+        <v>723.0513212902772</v>
       </c>
       <c r="C3" t="n">
-        <v>709.4840110827375</v>
+        <v>548.5982920091502</v>
       </c>
       <c r="D3" t="n">
-        <v>560.5496014214863</v>
+        <v>399.6638823478989</v>
       </c>
       <c r="E3" t="n">
-        <v>401.3121464160308</v>
+        <v>332.2867191827097</v>
       </c>
       <c r="F3" t="n">
-        <v>254.7775884429157</v>
+        <v>185.7521612095946</v>
       </c>
       <c r="G3" t="n">
-        <v>221.620280297552</v>
+        <v>47.69600181546161</v>
       </c>
       <c r="H3" t="n">
-        <v>114.7669981402178</v>
+        <v>47.69600181546161</v>
       </c>
       <c r="I3" t="n">
-        <v>47.69600181546164</v>
+        <v>47.69600181546161</v>
       </c>
       <c r="J3" t="n">
-        <v>109.4295715287957</v>
+        <v>109.4295715287956</v>
       </c>
       <c r="K3" t="n">
-        <v>341.5629180620089</v>
+        <v>341.5629180620086</v>
       </c>
       <c r="L3" t="n">
-        <v>715.0992457969814</v>
+        <v>715.099245796981</v>
       </c>
       <c r="M3" t="n">
-        <v>1202.977743333649</v>
+        <v>1202.977743333648</v>
       </c>
       <c r="N3" t="n">
-        <v>1719.475946359792</v>
+        <v>1719.475946359791</v>
       </c>
       <c r="O3" t="n">
-        <v>2125.555217763191</v>
+        <v>1922.087456467726</v>
       </c>
       <c r="P3" t="n">
-        <v>2230.998804672515</v>
+        <v>2230.998804672513</v>
       </c>
       <c r="Q3" t="n">
-        <v>2384.800090773082</v>
+        <v>2384.80009077308</v>
       </c>
       <c r="R3" t="n">
-        <v>2384.800090773082</v>
+        <v>2384.80009077308</v>
       </c>
       <c r="S3" t="n">
-        <v>2384.800090773082</v>
+        <v>2223.914371699494</v>
       </c>
       <c r="T3" t="n">
-        <v>2185.332873655392</v>
+        <v>2024.447154581805</v>
       </c>
       <c r="U3" t="n">
-        <v>1957.153641314364</v>
+        <v>1796.267922240776</v>
       </c>
       <c r="V3" t="n">
-        <v>1722.001533082621</v>
+        <v>1561.115814009034</v>
       </c>
       <c r="W3" t="n">
-        <v>1467.764176354419</v>
+        <v>1306.878457280832</v>
       </c>
       <c r="X3" t="n">
-        <v>1259.912676148886</v>
+        <v>1099.026957075299</v>
       </c>
       <c r="Y3" t="n">
-        <v>1052.152377383933</v>
+        <v>891.2666583103453</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>621.44756546612</v>
+        <v>47.69600181546161</v>
       </c>
       <c r="C4" t="n">
-        <v>621.44756546612</v>
+        <v>47.69600181546161</v>
       </c>
       <c r="D4" t="n">
-        <v>471.3309260537842</v>
+        <v>47.69600181546161</v>
       </c>
       <c r="E4" t="n">
-        <v>323.4178324713911</v>
+        <v>47.69600181546161</v>
       </c>
       <c r="F4" t="n">
-        <v>176.5278849734807</v>
+        <v>47.69600181546161</v>
       </c>
       <c r="G4" t="n">
-        <v>47.69600181546164</v>
+        <v>47.69600181546161</v>
       </c>
       <c r="H4" t="n">
-        <v>47.69600181546164</v>
+        <v>47.69600181546161</v>
       </c>
       <c r="I4" t="n">
-        <v>47.69600181546164</v>
+        <v>47.69600181546161</v>
       </c>
       <c r="J4" t="n">
-        <v>47.69600181546164</v>
+        <v>47.69600181546161</v>
       </c>
       <c r="K4" t="n">
-        <v>90.05593719627259</v>
+        <v>90.05593719627247</v>
       </c>
       <c r="L4" t="n">
-        <v>199.7885050713616</v>
+        <v>199.7885050713614</v>
       </c>
       <c r="M4" t="n">
-        <v>325.875235348833</v>
+        <v>325.8752353488326</v>
       </c>
       <c r="N4" t="n">
-        <v>454.3985214198582</v>
+        <v>454.3985214198578</v>
       </c>
       <c r="O4" t="n">
-        <v>557.0942826886063</v>
+        <v>557.0942826886057</v>
       </c>
       <c r="P4" t="n">
-        <v>621.44756546612</v>
+        <v>621.4475654661193</v>
       </c>
       <c r="Q4" t="n">
-        <v>621.44756546612</v>
+        <v>621.4475654661193</v>
       </c>
       <c r="R4" t="n">
-        <v>621.44756546612</v>
+        <v>467.795543716588</v>
       </c>
       <c r="S4" t="n">
-        <v>621.44756546612</v>
+        <v>467.795543716588</v>
       </c>
       <c r="T4" t="n">
-        <v>621.44756546612</v>
+        <v>275.685552713479</v>
       </c>
       <c r="U4" t="n">
-        <v>621.44756546612</v>
+        <v>275.685552713479</v>
       </c>
       <c r="V4" t="n">
-        <v>621.44756546612</v>
+        <v>275.685552713479</v>
       </c>
       <c r="W4" t="n">
-        <v>621.44756546612</v>
+        <v>275.685552713479</v>
       </c>
       <c r="X4" t="n">
-        <v>621.44756546612</v>
+        <v>47.69600181546161</v>
       </c>
       <c r="Y4" t="n">
-        <v>621.44756546612</v>
+        <v>47.69600181546161</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>1481.844651382451</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1112.882134442039</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>754.6164358352887</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>754.6164358352887</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>343.6305310456812</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>329.7071269842721</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y5" t="n">
-        <v>2642.120401548716</v>
+        <v>1481.844651382451</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>656.6110348804735</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="C7" t="n">
-        <v>656.6110348804735</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="D7" t="n">
-        <v>506.4943954681378</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="X7" t="n">
-        <v>656.6110348804735</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.6110348804735</v>
+        <v>257.1154545468208</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1215.881273373638</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>846.9187564332267</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>488.6530578264762</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>102.8648052282319</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>95.91930447902847</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2130.940772869852</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>1778.172117599737</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413572</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.48111343776</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5027,64 +5027,64 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K11" t="n">
-        <v>1034.340101969333</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622687</v>
+        <v>1586.925993846825</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294612</v>
+        <v>2120.45789851875</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353394</v>
+        <v>2667.236715577532</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906987</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353933</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862921</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320243</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.6966825353827</v>
+        <v>210.2179684131218</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6966825353827</v>
+        <v>210.2179684131218</v>
       </c>
       <c r="D13" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353826</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374722</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121912</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
         <v>344.6708498442063</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208127</v>
+        <v>909.2731541783396</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413789</v>
       </c>
       <c r="X13" t="n">
-        <v>653.6966825353827</v>
+        <v>391.8664332433615</v>
       </c>
       <c r="Y13" t="n">
-        <v>653.6966825353827</v>
+        <v>391.8664332433615</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420605</v>
       </c>
       <c r="O14" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P14" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107239</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862921</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946818</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.78330633104</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
         <v>2760.816196754298</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5388,7 +5388,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.2638710736754</v>
+        <v>681.2836032803223</v>
       </c>
       <c r="C16" t="n">
-        <v>263.2638710736754</v>
+        <v>512.3474203524154</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>362.2307809400796</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305368</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305368</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305368</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J16" t="n">
         <v>140.6836668953299</v>
@@ -5440,7 +5440,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5452,34 +5452,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1948.66560649314</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1948.66560649314</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1726.898991062666</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1183.111635982423</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>893.6944659454625</v>
+        <v>909.2731541783398</v>
       </c>
       <c r="X16" t="n">
-        <v>665.7049150474452</v>
+        <v>681.2836032803223</v>
       </c>
       <c r="Y16" t="n">
-        <v>444.9123359039149</v>
+        <v>681.2836032803223</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>919.9473678912384</v>
       </c>
       <c r="L17" t="n">
-        <v>1390.197710791128</v>
+        <v>1784.466183544593</v>
       </c>
       <c r="M17" t="n">
-        <v>1923.729615463053</v>
+        <v>2317.998088216518</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903276</v>
+        <v>3297.750360443164</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>3800.722831322501</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188668</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839441</v>
+        <v>411.1769646560687</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839441</v>
+        <v>411.1769646560687</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>411.1769646560687</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927022</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
         <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783405</v>
+        <v>909.2731541783397</v>
       </c>
       <c r="W19" t="n">
-        <v>619.85598414138</v>
+        <v>813.6180086298385</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>813.6180086298385</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>592.8254294863084</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551628</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>799.5135445647363</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1664.032360218091</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2642.58266304792</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353394</v>
+        <v>3189.361480106702</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3692.333950986039</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>432.2000540015823</v>
+        <v>414.6138567886372</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2638710736754</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U22" t="n">
-        <v>1606.732307116217</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1352.04781891033</v>
+        <v>999.1036114208118</v>
       </c>
       <c r="W22" t="n">
-        <v>1062.630648873369</v>
+        <v>999.1036114208118</v>
       </c>
       <c r="X22" t="n">
-        <v>834.6410979753522</v>
+        <v>771.1140605227945</v>
       </c>
       <c r="Y22" t="n">
-        <v>613.848518831822</v>
+        <v>550.3214813792642</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001584</v>
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6017,22 +6017,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6145,40 +6145,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1270.09328756303</v>
       </c>
       <c r="V25" t="n">
         <v>1015.408799357142</v>
@@ -6230,16 +6230,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6306,7 +6306,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320243</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>533.2127443498364</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>533.2127443498364</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>383.0961049375007</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>235.1830113551076</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>235.1830113551076</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6415,19 +6415,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>935.6537883236062</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>714.8612091800761</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6470,13 +6470,13 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6546,7 +6546,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,7 +6634,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1686.940684347277</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1465.174068916803</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1176.071202042446</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783406</v>
+        <v>921.3867138365594</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>631.9695437995987</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>631.9695437995987</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>411.1769646560685</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,22 +6698,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.4728289383116</v>
+        <v>472.472828938312</v>
       </c>
       <c r="C34" t="n">
-        <v>454.4312209142561</v>
+        <v>472.472828938312</v>
       </c>
       <c r="D34" t="n">
-        <v>332.9977461775129</v>
+        <v>472.472828938312</v>
       </c>
       <c r="E34" t="n">
-        <v>213.7678172707123</v>
+        <v>470.3215113269503</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>352.1147285046325</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6859,16 +6859,16 @@
         <v>168.7960365938782</v>
       </c>
       <c r="K34" t="n">
-        <v>400.8955892413028</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L34" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883473</v>
       </c>
       <c r="M34" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N34" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O34" t="n">
         <v>1814.799887709819</v>
@@ -6877,10 +6877,10 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R34" t="n">
-        <v>2120.09513112621</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S34" t="n">
         <v>1957.092411628629</v>
@@ -6898,10 +6898,10 @@
         <v>1016.853929783321</v>
       </c>
       <c r="X34" t="n">
-        <v>817.5475435608964</v>
+        <v>817.5475435608967</v>
       </c>
       <c r="Y34" t="n">
-        <v>625.4381290929589</v>
+        <v>625.4381290929591</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2164.653643346052</v>
+        <v>2164.653643346051</v>
       </c>
       <c r="C35" t="n">
-        <v>1824.374291081233</v>
+        <v>1824.374291081232</v>
       </c>
       <c r="D35" t="n">
-        <v>1494.791757150075</v>
+        <v>1494.791757150074</v>
       </c>
       <c r="E35" t="n">
-        <v>1137.686669227423</v>
+        <v>1137.686669227422</v>
       </c>
       <c r="F35" t="n">
-        <v>755.3839291134072</v>
+        <v>755.383929113407</v>
       </c>
       <c r="G35" t="n">
-        <v>368.9946436339962</v>
+        <v>368.994643633996</v>
       </c>
       <c r="H35" t="n">
-        <v>100.0942079183559</v>
+        <v>100.0942079183557</v>
       </c>
       <c r="I35" t="n">
-        <v>86.78047383341713</v>
+        <v>86.78047383341708</v>
       </c>
       <c r="J35" t="n">
-        <v>443.0652538127956</v>
+        <v>275.6596047924425</v>
       </c>
       <c r="K35" t="n">
-        <v>776.8846275026422</v>
+        <v>870.563167648025</v>
       </c>
       <c r="L35" t="n">
-        <v>1227.918840751051</v>
+        <v>1735.08198330138</v>
       </c>
       <c r="M35" t="n">
-        <v>1761.450745422976</v>
+        <v>2268.613887973304</v>
       </c>
       <c r="N35" t="n">
-        <v>2741.203017649622</v>
+        <v>2815.392705032087</v>
       </c>
       <c r="O35" t="n">
-        <v>3244.175488528959</v>
+        <v>3318.365175911424</v>
       </c>
       <c r="P35" t="n">
-        <v>3957.530575975905</v>
+        <v>4031.720263358369</v>
       </c>
       <c r="Q35" t="n">
-        <v>4280.006625114054</v>
+        <v>4280.006625114052</v>
       </c>
       <c r="R35" t="n">
-        <v>4339.023691670856</v>
+        <v>4339.023691670854</v>
       </c>
       <c r="S35" t="n">
-        <v>4257.416187873544</v>
+        <v>4257.416187873541</v>
       </c>
       <c r="T35" t="n">
-        <v>4080.121604933358</v>
+        <v>4080.121604933356</v>
       </c>
       <c r="U35" t="n">
-        <v>3855.274292882787</v>
+        <v>3855.274292882785</v>
       </c>
       <c r="V35" t="n">
-        <v>3552.894570214809</v>
+        <v>3552.894570214807</v>
       </c>
       <c r="W35" t="n">
-        <v>3228.809079620288</v>
+        <v>3228.809079620286</v>
       </c>
       <c r="X35" t="n">
-        <v>2884.026486034801</v>
+        <v>2884.026486034799</v>
       </c>
       <c r="Y35" t="n">
-        <v>2522.570318734582</v>
+        <v>2522.57031873458</v>
       </c>
     </row>
     <row r="36">
@@ -7008,19 +7008,19 @@
         <v>196.2896597940116</v>
       </c>
       <c r="H36" t="n">
-        <v>105.7877654318792</v>
+        <v>105.7877654318791</v>
       </c>
       <c r="I36" t="n">
-        <v>86.78047383341713</v>
+        <v>86.78047383341708</v>
       </c>
       <c r="J36" t="n">
-        <v>180.4577433240345</v>
+        <v>180.4577433240341</v>
       </c>
       <c r="K36" t="n">
-        <v>418.7219423043816</v>
+        <v>418.7219423043812</v>
       </c>
       <c r="L36" t="n">
-        <v>785.420102617047</v>
+        <v>785.4201026170466</v>
       </c>
       <c r="M36" t="n">
         <v>1232.696427839363</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>463.6922683233334</v>
+        <v>556.129151278225</v>
       </c>
       <c r="C37" t="n">
-        <v>463.6922683233334</v>
+        <v>415.8761330259107</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9766803957174</v>
+        <v>294.4426582891675</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9766803957174</v>
+        <v>294.4426582891675</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9766803957174</v>
+        <v>294.4426582891675</v>
       </c>
       <c r="G37" t="n">
-        <v>272.9570084460289</v>
+        <v>155.4229863394791</v>
       </c>
       <c r="H37" t="n">
-        <v>155.4229863394792</v>
+        <v>155.4229863394791</v>
       </c>
       <c r="I37" t="n">
-        <v>86.78047383341712</v>
+        <v>86.78047383341708</v>
       </c>
       <c r="J37" t="n">
-        <v>160.0154759789009</v>
+        <v>160.0154759789011</v>
       </c>
       <c r="K37" t="n">
-        <v>392.1150286263255</v>
+        <v>392.1150286263259</v>
       </c>
       <c r="L37" t="n">
-        <v>736.7871967733698</v>
+        <v>736.7871967733703</v>
       </c>
       <c r="M37" t="n">
         <v>1109.056612071467</v>
@@ -7111,34 +7111,34 @@
         <v>1806.019327094842</v>
       </c>
       <c r="P37" t="n">
-        <v>2066.739197227049</v>
+        <v>2066.73919722705</v>
       </c>
       <c r="Q37" t="n">
-        <v>2172.461863078112</v>
+        <v>2172.461863078113</v>
       </c>
       <c r="R37" t="n">
-        <v>2111.314570511232</v>
+        <v>2111.314570511233</v>
       </c>
       <c r="S37" t="n">
-        <v>1948.311851013651</v>
+        <v>1948.311851013652</v>
       </c>
       <c r="T37" t="n">
-        <v>1755.22840025877</v>
+        <v>1755.228400258771</v>
       </c>
       <c r="U37" t="n">
-        <v>1494.808698060006</v>
+        <v>1494.808698060007</v>
       </c>
       <c r="V37" t="n">
-        <v>1268.807374529711</v>
+        <v>1268.807374529713</v>
       </c>
       <c r="W37" t="n">
-        <v>1008.073369168343</v>
+        <v>1008.073369168345</v>
       </c>
       <c r="X37" t="n">
-        <v>808.7669829459182</v>
+        <v>901.2038659008097</v>
       </c>
       <c r="Y37" t="n">
-        <v>616.6575684779806</v>
+        <v>709.0944514328721</v>
       </c>
     </row>
     <row r="38">
@@ -7160,64 +7160,64 @@
         <v>1137.686669227422</v>
       </c>
       <c r="F38" t="n">
-        <v>755.3839291134072</v>
+        <v>755.383929113407</v>
       </c>
       <c r="G38" t="n">
-        <v>368.9946436339962</v>
+        <v>368.994643633996</v>
       </c>
       <c r="H38" t="n">
-        <v>100.0942079183559</v>
+        <v>100.0942079183557</v>
       </c>
       <c r="I38" t="n">
-        <v>86.78047383341713</v>
+        <v>86.78047383341708</v>
       </c>
       <c r="J38" t="n">
-        <v>295.0181574519175</v>
+        <v>275.6596047924425</v>
       </c>
       <c r="K38" t="n">
-        <v>628.837531141764</v>
+        <v>609.478978482289</v>
       </c>
       <c r="L38" t="n">
-        <v>1079.871744390173</v>
+        <v>1459.830886873821</v>
       </c>
       <c r="M38" t="n">
-        <v>2058.422047220001</v>
+        <v>1993.362791545745</v>
       </c>
       <c r="N38" t="n">
-        <v>2605.200864278784</v>
+        <v>2540.141608604528</v>
       </c>
       <c r="O38" t="n">
-        <v>3108.173335158121</v>
+        <v>3043.114079483865</v>
       </c>
       <c r="P38" t="n">
-        <v>3821.528422605066</v>
+        <v>3756.46916693081</v>
       </c>
       <c r="Q38" t="n">
-        <v>4280.006625114054</v>
+        <v>4214.947369439798</v>
       </c>
       <c r="R38" t="n">
-        <v>4339.023691670856</v>
+        <v>4339.023691670854</v>
       </c>
       <c r="S38" t="n">
-        <v>4257.416187873544</v>
+        <v>4257.416187873541</v>
       </c>
       <c r="T38" t="n">
-        <v>4080.121604933358</v>
+        <v>4080.121604933356</v>
       </c>
       <c r="U38" t="n">
-        <v>3855.274292882787</v>
+        <v>3855.274292882786</v>
       </c>
       <c r="V38" t="n">
         <v>3552.894570214808</v>
       </c>
       <c r="W38" t="n">
-        <v>3228.809079620287</v>
+        <v>3228.809079620286</v>
       </c>
       <c r="X38" t="n">
-        <v>2884.0264860348</v>
+        <v>2884.026486034799</v>
       </c>
       <c r="Y38" t="n">
-        <v>2522.570318734581</v>
+        <v>2522.57031873458</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7245,19 @@
         <v>196.2896597940116</v>
       </c>
       <c r="H39" t="n">
-        <v>105.7877654318792</v>
+        <v>105.7877654318791</v>
       </c>
       <c r="I39" t="n">
-        <v>86.78047383341713</v>
+        <v>86.78047383341708</v>
       </c>
       <c r="J39" t="n">
-        <v>180.4577433240345</v>
+        <v>180.4577433240341</v>
       </c>
       <c r="K39" t="n">
-        <v>418.7219423043816</v>
+        <v>418.7219423043812</v>
       </c>
       <c r="L39" t="n">
-        <v>785.420102617047</v>
+        <v>785.4201026170466</v>
       </c>
       <c r="M39" t="n">
         <v>1232.696427839363</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>463.6922683233337</v>
+        <v>534.6435014350861</v>
       </c>
       <c r="C40" t="n">
-        <v>323.4392500710193</v>
+        <v>394.3904831827718</v>
       </c>
       <c r="D40" t="n">
-        <v>323.4392500710193</v>
+        <v>272.9570084460287</v>
       </c>
       <c r="E40" t="n">
-        <v>323.4392500710193</v>
+        <v>272.9570084460287</v>
       </c>
       <c r="F40" t="n">
-        <v>323.4392500710193</v>
+        <v>272.9570084460287</v>
       </c>
       <c r="G40" t="n">
-        <v>184.4195781213306</v>
+        <v>272.9570084460287</v>
       </c>
       <c r="H40" t="n">
-        <v>86.78047383341713</v>
+        <v>155.4229863394791</v>
       </c>
       <c r="I40" t="n">
-        <v>86.78047383341713</v>
+        <v>86.78047383341708</v>
       </c>
       <c r="J40" t="n">
         <v>160.0154759789009</v>
       </c>
       <c r="K40" t="n">
-        <v>392.1150286263255</v>
+        <v>392.1150286263256</v>
       </c>
       <c r="L40" t="n">
-        <v>736.7871967733698</v>
+        <v>736.7871967733699</v>
       </c>
       <c r="M40" t="n">
         <v>1109.056612071467</v>
@@ -7348,34 +7348,34 @@
         <v>1806.019327094842</v>
       </c>
       <c r="P40" t="n">
-        <v>2066.739197227049</v>
+        <v>2066.73919722705</v>
       </c>
       <c r="Q40" t="n">
-        <v>2172.461863078112</v>
+        <v>2172.461863078113</v>
       </c>
       <c r="R40" t="n">
-        <v>2111.314570511232</v>
+        <v>2111.314570511233</v>
       </c>
       <c r="S40" t="n">
-        <v>1948.311851013651</v>
+        <v>1948.311851013652</v>
       </c>
       <c r="T40" t="n">
-        <v>1755.22840025877</v>
+        <v>1755.228400258771</v>
       </c>
       <c r="U40" t="n">
-        <v>1494.808698060006</v>
+        <v>1494.808698060007</v>
       </c>
       <c r="V40" t="n">
-        <v>1268.807374529712</v>
+        <v>1268.807374529713</v>
       </c>
       <c r="W40" t="n">
-        <v>1008.073369168343</v>
+        <v>1008.073369168345</v>
       </c>
       <c r="X40" t="n">
-        <v>808.7669829459185</v>
+        <v>879.7182160576708</v>
       </c>
       <c r="Y40" t="n">
-        <v>616.6575684779809</v>
+        <v>687.6088015897333</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2164.653643346051</v>
+        <v>2164.65364334605</v>
       </c>
       <c r="C41" t="n">
-        <v>1824.374291081232</v>
+        <v>1824.374291081231</v>
       </c>
       <c r="D41" t="n">
-        <v>1494.791757150074</v>
+        <v>1494.791757150073</v>
       </c>
       <c r="E41" t="n">
-        <v>1137.686669227422</v>
+        <v>1137.686669227421</v>
       </c>
       <c r="F41" t="n">
-        <v>755.3839291134072</v>
+        <v>755.3839291134061</v>
       </c>
       <c r="G41" t="n">
-        <v>368.9946436339962</v>
+        <v>368.994643633996</v>
       </c>
       <c r="H41" t="n">
-        <v>100.0942079183559</v>
+        <v>100.0942079183557</v>
       </c>
       <c r="I41" t="n">
-        <v>86.78047383341713</v>
+        <v>86.78047383341708</v>
       </c>
       <c r="J41" t="n">
-        <v>443.0652538127956</v>
+        <v>275.6596047924425</v>
       </c>
       <c r="K41" t="n">
-        <v>1097.788585948095</v>
+        <v>609.478978482289</v>
       </c>
       <c r="L41" t="n">
-        <v>1548.822799196504</v>
+        <v>1473.997794135644</v>
       </c>
       <c r="M41" t="n">
-        <v>2082.354703868429</v>
+        <v>2145.143173938701</v>
       </c>
       <c r="N41" t="n">
-        <v>2629.133520927211</v>
+        <v>2691.921990997483</v>
       </c>
       <c r="O41" t="n">
-        <v>3132.105991806548</v>
+        <v>3571.886641326938</v>
       </c>
       <c r="P41" t="n">
-        <v>3845.461079253494</v>
+        <v>3966.661007684116</v>
       </c>
       <c r="Q41" t="n">
-        <v>4280.006625114054</v>
+        <v>4214.947369439798</v>
       </c>
       <c r="R41" t="n">
-        <v>4339.023691670856</v>
+        <v>4339.023691670854</v>
       </c>
       <c r="S41" t="n">
-        <v>4257.416187873544</v>
+        <v>4257.416187873541</v>
       </c>
       <c r="T41" t="n">
-        <v>4080.121604933358</v>
+        <v>4080.121604933356</v>
       </c>
       <c r="U41" t="n">
-        <v>3855.274292882787</v>
+        <v>3855.274292882785</v>
       </c>
       <c r="V41" t="n">
-        <v>3552.894570214808</v>
+        <v>3552.894570214807</v>
       </c>
       <c r="W41" t="n">
-        <v>3228.809079620287</v>
+        <v>3228.809079620285</v>
       </c>
       <c r="X41" t="n">
-        <v>2884.0264860348</v>
+        <v>2884.026486034798</v>
       </c>
       <c r="Y41" t="n">
-        <v>2522.570318734581</v>
+        <v>2522.570318734579</v>
       </c>
     </row>
     <row r="42">
@@ -7482,19 +7482,19 @@
         <v>196.2896597940116</v>
       </c>
       <c r="H42" t="n">
-        <v>105.7877654318792</v>
+        <v>105.7877654318791</v>
       </c>
       <c r="I42" t="n">
-        <v>86.78047383341713</v>
+        <v>86.78047383341708</v>
       </c>
       <c r="J42" t="n">
-        <v>180.4577433240345</v>
+        <v>180.4577433240341</v>
       </c>
       <c r="K42" t="n">
-        <v>418.7219423043816</v>
+        <v>418.7219423043812</v>
       </c>
       <c r="L42" t="n">
-        <v>785.420102617047</v>
+        <v>785.4201026170466</v>
       </c>
       <c r="M42" t="n">
         <v>1232.696427839363</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>826.0013740433401</v>
+        <v>463.6922683233349</v>
       </c>
       <c r="C43" t="n">
-        <v>685.7483557910257</v>
+        <v>463.6922683233349</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3148810542825</v>
+        <v>342.2587935865918</v>
       </c>
       <c r="E43" t="n">
-        <v>445.0849521474816</v>
+        <v>223.0288646797913</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9766803957175</v>
+        <v>155.4229863394791</v>
       </c>
       <c r="G43" t="n">
-        <v>272.957008446029</v>
+        <v>155.4229863394791</v>
       </c>
       <c r="H43" t="n">
-        <v>155.4229863394793</v>
+        <v>155.4229863394791</v>
       </c>
       <c r="I43" t="n">
-        <v>86.78047383341713</v>
+        <v>86.78047383341708</v>
       </c>
       <c r="J43" t="n">
         <v>160.0154759789009</v>
       </c>
       <c r="K43" t="n">
-        <v>392.1150286263255</v>
+        <v>392.1150286263256</v>
       </c>
       <c r="L43" t="n">
-        <v>736.7871967733698</v>
+        <v>736.7871967733699</v>
       </c>
       <c r="M43" t="n">
         <v>1109.056612071467</v>
@@ -7591,28 +7591,28 @@
         <v>2172.461863078112</v>
       </c>
       <c r="R43" t="n">
-        <v>2111.314570511232</v>
+        <v>2111.314570511233</v>
       </c>
       <c r="S43" t="n">
-        <v>2111.314570511232</v>
+        <v>1948.311851013652</v>
       </c>
       <c r="T43" t="n">
-        <v>1918.231119756351</v>
+        <v>1755.22840025877</v>
       </c>
       <c r="U43" t="n">
-        <v>1657.811417557587</v>
+        <v>1494.808698060006</v>
       </c>
       <c r="V43" t="n">
-        <v>1431.810094027293</v>
+        <v>1268.807374529712</v>
       </c>
       <c r="W43" t="n">
-        <v>1171.076088665925</v>
+        <v>1008.073369168344</v>
       </c>
       <c r="X43" t="n">
-        <v>1171.076088665925</v>
+        <v>808.7669829459195</v>
       </c>
       <c r="Y43" t="n">
-        <v>978.9666741979872</v>
+        <v>616.6575684779821</v>
       </c>
     </row>
     <row r="44">
@@ -7643,40 +7643,40 @@
         <v>100.0942079183558</v>
       </c>
       <c r="I44" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="J44" t="n">
-        <v>443.0652538127956</v>
+        <v>275.6596047924426</v>
       </c>
       <c r="K44" t="n">
-        <v>1073.855929299667</v>
+        <v>609.478978482289</v>
       </c>
       <c r="L44" t="n">
-        <v>1524.890142548076</v>
+        <v>1060.513191730698</v>
       </c>
       <c r="M44" t="n">
-        <v>2058.42204722</v>
+        <v>2039.063494560527</v>
       </c>
       <c r="N44" t="n">
-        <v>2605.200864278783</v>
+        <v>2585.842311619309</v>
       </c>
       <c r="O44" t="n">
-        <v>3108.17333515812</v>
+        <v>3088.814782498646</v>
       </c>
       <c r="P44" t="n">
-        <v>3821.528422605065</v>
+        <v>3802.169869945592</v>
       </c>
       <c r="Q44" t="n">
-        <v>4280.006625114053</v>
+        <v>4214.947369439799</v>
       </c>
       <c r="R44" t="n">
         <v>4339.023691670855</v>
       </c>
       <c r="S44" t="n">
-        <v>4257.416187873543</v>
+        <v>4257.416187873542</v>
       </c>
       <c r="T44" t="n">
-        <v>4080.121604933358</v>
+        <v>4080.121604933357</v>
       </c>
       <c r="U44" t="n">
         <v>3855.274292882787</v>
@@ -7691,7 +7691,7 @@
         <v>2884.0264860348</v>
       </c>
       <c r="Y44" t="n">
-        <v>2522.57031873458</v>
+        <v>2522.570318734581</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>105.7877654318791</v>
       </c>
       <c r="I45" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="J45" t="n">
         <v>180.4577433240344</v>
       </c>
       <c r="K45" t="n">
-        <v>418.7219423043816</v>
+        <v>418.7219423043812</v>
       </c>
       <c r="L45" t="n">
-        <v>785.420102617047</v>
+        <v>785.4201026170466</v>
       </c>
       <c r="M45" t="n">
         <v>1232.696427839363</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>463.6922683233338</v>
+        <v>463.6922683233349</v>
       </c>
       <c r="C46" t="n">
-        <v>323.4392500710194</v>
+        <v>411.9766803957172</v>
       </c>
       <c r="D46" t="n">
-        <v>323.4392500710194</v>
+        <v>411.9766803957172</v>
       </c>
       <c r="E46" t="n">
-        <v>323.4392500710194</v>
+        <v>411.9766803957172</v>
       </c>
       <c r="F46" t="n">
-        <v>323.4392500710194</v>
+        <v>411.9766803957172</v>
       </c>
       <c r="G46" t="n">
-        <v>184.4195781213309</v>
+        <v>272.9570084460287</v>
       </c>
       <c r="H46" t="n">
-        <v>155.4229863394792</v>
+        <v>155.4229863394791</v>
       </c>
       <c r="I46" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="J46" t="n">
-        <v>160.0154759789009</v>
+        <v>160.015475978901</v>
       </c>
       <c r="K46" t="n">
-        <v>392.1150286263255</v>
+        <v>392.1150286263256</v>
       </c>
       <c r="L46" t="n">
-        <v>736.7871967733698</v>
+        <v>736.7871967733701</v>
       </c>
       <c r="M46" t="n">
         <v>1109.056612071467</v>
@@ -7822,7 +7822,7 @@
         <v>1806.019327094842</v>
       </c>
       <c r="P46" t="n">
-        <v>2066.739197227049</v>
+        <v>2066.73919722705</v>
       </c>
       <c r="Q46" t="n">
         <v>2172.461863078112</v>
@@ -7834,22 +7834,22 @@
         <v>1948.311851013652</v>
       </c>
       <c r="T46" t="n">
-        <v>1755.22840025877</v>
+        <v>1755.228400258771</v>
       </c>
       <c r="U46" t="n">
-        <v>1494.808698060006</v>
+        <v>1494.808698060007</v>
       </c>
       <c r="V46" t="n">
-        <v>1268.807374529712</v>
+        <v>1268.807374529713</v>
       </c>
       <c r="W46" t="n">
-        <v>1008.073369168344</v>
+        <v>1008.073369168345</v>
       </c>
       <c r="X46" t="n">
-        <v>808.7669829459189</v>
+        <v>808.7669829459198</v>
       </c>
       <c r="Y46" t="n">
-        <v>616.657568477981</v>
+        <v>616.6575684779821</v>
       </c>
     </row>
   </sheetData>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>188.3393280691906</v>
       </c>
       <c r="P3" t="n">
-        <v>112.9397774323987</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8690,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>251.1867816683973</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792323</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>315.1679217109337</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.2173930448423</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>135.638565427898</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>132.9990175570116</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9401,16 +9401,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>13.98823883547163</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>395.1460246798098</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>248.8400772687159</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10118,16 +10118,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>216.9877583263337</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>361.281923749209</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>263.7214031977132</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>74.93907816410817</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>19.55409359542921</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>403.3512072152758</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>139.0035102334672</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>188.1405900049272</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>299.9710119161867</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>166.1526643823486</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>35.10510839313228</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>170.2797941290525</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>27.1859285341218</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>81.33107165459973</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983816</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>191.8244042435751</v>
       </c>
       <c r="X19" t="n">
-        <v>105.0742887270136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>45.48143183721664</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>218.7979688085007</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>105.0742887270149</v>
       </c>
       <c r="U25" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>27.80005112138221</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>105.0742887270136</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>11.99242406163653</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>105.0742887270137</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>120.9892961259762</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>115.9078251824844</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.9560873810015</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.8504880697913</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>69.02070794103597</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0247149940947</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>91.51251412534081</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>120.2191399893758</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F40" t="n">
-        <v>117.0247149940947</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
-        <v>19.69596864044985</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100151</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>70.24172078063347</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>84.2475259598482</v>
+        <v>50.09489543718551</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>161.3726923026053</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>197.3133223602006</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>87.65205602144957</v>
       </c>
       <c r="D46" t="n">
-        <v>120.2191399893758</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
-        <v>117.0247149940947</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>87.65205602145113</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>719190.9367975346</v>
+        <v>719190.9367975345</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>719190.9367975345</v>
+        <v>719190.9367975346</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733407.7540234862</v>
+        <v>733407.7540234863</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>727353.8679033193</v>
+        <v>727353.8679033195</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>727353.8679033194</v>
+        <v>727353.8679033195</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312488</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
+        <v>694893.1270522207</v>
+      </c>
+      <c r="F2" t="n">
+        <v>694893.1270522207</v>
+      </c>
+      <c r="G2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="H2" t="n">
+        <v>694893.1270522204</v>
+      </c>
+      <c r="I2" t="n">
         <v>694893.1270522206</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>694893.1270522206</v>
       </c>
-      <c r="G2" t="n">
-        <v>694893.1270522206</v>
-      </c>
-      <c r="H2" t="n">
-        <v>694893.1270522206</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>694893.1270522207</v>
       </c>
-      <c r="J2" t="n">
-        <v>694893.1270522207</v>
-      </c>
-      <c r="K2" t="n">
-        <v>694893.1270522205</v>
-      </c>
       <c r="L2" t="n">
-        <v>709109.9442781722</v>
+        <v>709109.9442781719</v>
       </c>
       <c r="M2" t="n">
         <v>709109.9442781728</v>
@@ -26350,10 +26350,10 @@
         <v>709109.9442781727</v>
       </c>
       <c r="O2" t="n">
-        <v>709109.9442781728</v>
+        <v>709109.9442781726</v>
       </c>
       <c r="P2" t="n">
-        <v>709109.9442781723</v>
+        <v>709109.9442781725</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>499025.2209182724</v>
+        <v>499025.2209182719</v>
       </c>
       <c r="C3" t="n">
-        <v>86438.14008084119</v>
+        <v>86438.14008084167</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155992.1587375581</v>
+        <v>155992.1587375579</v>
       </c>
       <c r="K3" t="n">
-        <v>20097.15937377285</v>
+        <v>20097.15937377294</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306927</v>
+        <v>22717.06642306933</v>
       </c>
       <c r="M3" t="n">
         <v>102290.4294952597</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225434.3403095042</v>
+        <v>225434.3403095043</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499376</v>
       </c>
       <c r="F4" t="n">
+        <v>25090.72367499374</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25090.72367499374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499379</v>
+      </c>
+      <c r="I4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="G4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25090.7236749938</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="L4" t="n">
-        <v>34434.53238771016</v>
+        <v>34434.53238771018</v>
       </c>
       <c r="M4" t="n">
-        <v>47680.74001500152</v>
+        <v>47680.74001500166</v>
       </c>
       <c r="N4" t="n">
-        <v>47680.74001500154</v>
+        <v>47680.74001500165</v>
       </c>
       <c r="O4" t="n">
-        <v>47680.74001500153</v>
+        <v>47680.7400150016</v>
       </c>
       <c r="P4" t="n">
-        <v>47680.74001500156</v>
+        <v>47680.74001500162</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76645.98271336561</v>
+        <v>76645.98271336558</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26500,13 +26500,13 @@
         <v>98770.76957511491</v>
       </c>
       <c r="M5" t="n">
-        <v>92097.54350773217</v>
+        <v>92097.54350773213</v>
       </c>
       <c r="N5" t="n">
-        <v>92097.54350773217</v>
+        <v>92097.54350773213</v>
       </c>
       <c r="O5" t="n">
-        <v>92097.54350773217</v>
+        <v>92097.54350773213</v>
       </c>
       <c r="P5" t="n">
         <v>92097.54350773216</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82693.99530989412</v>
+        <v>-82693.99530989301</v>
       </c>
       <c r="C6" t="n">
-        <v>348049.8245592658</v>
+        <v>348049.8245592652</v>
       </c>
       <c r="D6" t="n">
         <v>434487.9646401068</v>
       </c>
       <c r="E6" t="n">
-        <v>-153958.5288698934</v>
+        <v>-154025.7243601193</v>
       </c>
       <c r="F6" t="n">
-        <v>573418.8851235132</v>
+        <v>573351.6896332876</v>
       </c>
       <c r="G6" t="n">
-        <v>573418.8851235132</v>
+        <v>573351.6896332874</v>
       </c>
       <c r="H6" t="n">
-        <v>573418.8851235133</v>
+        <v>573351.6896332871</v>
       </c>
       <c r="I6" t="n">
-        <v>573418.8851235133</v>
+        <v>573351.6896332874</v>
       </c>
       <c r="J6" t="n">
-        <v>417426.7263859552</v>
+        <v>417359.5308957294</v>
       </c>
       <c r="K6" t="n">
-        <v>553321.7257497403</v>
+        <v>553254.5302595146</v>
       </c>
       <c r="L6" t="n">
-        <v>553187.5758922779</v>
+        <v>553160.9998798401</v>
       </c>
       <c r="M6" t="n">
-        <v>467041.2312601795</v>
+        <v>467014.6552477421</v>
       </c>
       <c r="N6" t="n">
-        <v>569331.660755439</v>
+        <v>569305.0847430016</v>
       </c>
       <c r="O6" t="n">
-        <v>569331.6607554391</v>
+        <v>569305.0847430015</v>
       </c>
       <c r="P6" t="n">
-        <v>569331.6607554385</v>
+        <v>569305.0847430014</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>310.5239143859989</v>
+        <v>310.5239143859985</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>596.2000226932705</v>
+        <v>596.2000226932701</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="G4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="H4" t="n">
         <v>1194.51293060493</v>
@@ -26820,13 +26820,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.755922917714</v>
+        <v>1084.755922917713</v>
       </c>
       <c r="N4" t="n">
-        <v>1084.755922917714</v>
+        <v>1084.755922917713</v>
       </c>
       <c r="O4" t="n">
-        <v>1084.755922917714</v>
+        <v>1084.755922917713</v>
       </c>
       <c r="P4" t="n">
         <v>1084.755922917714</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>310.5239143859989</v>
+        <v>310.5239143859985</v>
       </c>
       <c r="C3" t="n">
-        <v>67.21974983108782</v>
+        <v>67.21974983108822</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>596.2000226932705</v>
+        <v>596.2000226932701</v>
       </c>
       <c r="C4" t="n">
-        <v>78.08725006128519</v>
+        <v>78.08725006128554</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503751</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>596.2000226932705</v>
+        <v>596.2000226932701</v>
       </c>
       <c r="K4" t="n">
-        <v>78.08725006128519</v>
+        <v>78.08725006128554</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>410.4686501631581</v>
+        <v>410.4686501631583</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>596.2000226932705</v>
+        <v>596.2000226932701</v>
       </c>
       <c r="K4" t="n">
-        <v>78.08725006128519</v>
+        <v>78.08725006128554</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503751</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>218.0226993300978</v>
       </c>
       <c r="H2" t="n">
-        <v>326.6902672888099</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>162.3493641056171</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>71.45324723944313</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.5735823537993</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.6312528396099</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>175.2737962698617</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>90.9416889218636</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>103.8498627362816</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.7847493357609</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.40028636150859</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.6882442276601</v>
+        <v>58.68824422766015</v>
       </c>
       <c r="S3" t="n">
-        <v>159.2768618828501</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>39.88745387493037</v>
+        <v>167.4310182013693</v>
       </c>
       <c r="H4" t="n">
         <v>157.2486087653165</v>
@@ -27558,7 +27558,7 @@
         <v>138.6109157667848</v>
       </c>
       <c r="J4" t="n">
-        <v>53.7699263104447</v>
+        <v>53.76992631044475</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.27293217940856</v>
+        <v>39.27293217940862</v>
       </c>
       <c r="R4" t="n">
-        <v>152.1155015320359</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>214.2580022356942</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5530281207172</v>
+        <v>35.36413702763926</v>
       </c>
       <c r="U4" t="n">
         <v>286.2884860206497</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>218.8388043680901</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>50.91626905208858</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>92.89577304195178</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>154.9068855563359</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>372.2276105887176</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>158.0700566698772</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>46.76331713866882</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28570,19 +28570,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.526185780643581e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C35" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D35" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E35" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F35" t="n">
-        <v>28.39633302883544</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G35" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H35" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I35" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T35" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U35" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V35" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W35" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X35" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883772</v>
       </c>
       <c r="Y35" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C38" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D38" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E38" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F38" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G38" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H38" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I38" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T38" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U38" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883763</v>
       </c>
       <c r="V38" t="n">
-        <v>28.39633302883573</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W38" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X38" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y38" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C41" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D41" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E41" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F41" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G41" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H41" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I41" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T41" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U41" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V41" t="n">
-        <v>28.39633302883573</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W41" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X41" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y41" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C44" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D44" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E44" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F44" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G44" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H44" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I44" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T44" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U44" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V44" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W44" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X44" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y44" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.248337344265321</v>
+        <v>1.24833734426532</v>
       </c>
       <c r="H2" t="n">
-        <v>12.78453482695722</v>
+        <v>12.78453482695721</v>
       </c>
       <c r="I2" t="n">
-        <v>48.12652546478884</v>
+        <v>48.12652546478878</v>
       </c>
       <c r="J2" t="n">
-        <v>105.9510716728389</v>
+        <v>105.9510716728388</v>
       </c>
       <c r="K2" t="n">
-        <v>158.79319145559</v>
+        <v>158.7931914555898</v>
       </c>
       <c r="L2" t="n">
-        <v>196.9969954551498</v>
+        <v>196.9969954551496</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1971147012282</v>
+        <v>219.1971147012279</v>
       </c>
       <c r="N2" t="n">
-        <v>222.7439531806221</v>
+        <v>222.7439531806218</v>
       </c>
       <c r="O2" t="n">
-        <v>210.3307987135838</v>
+        <v>210.3307987135835</v>
       </c>
       <c r="P2" t="n">
-        <v>179.5124705270337</v>
+        <v>179.5124705270334</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.8063893855318</v>
+        <v>134.8063893855316</v>
       </c>
       <c r="R2" t="n">
-        <v>78.41587070170655</v>
+        <v>78.41587070170645</v>
       </c>
       <c r="S2" t="n">
-        <v>28.44648723244604</v>
+        <v>28.446487232446</v>
       </c>
       <c r="T2" t="n">
-        <v>5.464596724521446</v>
+        <v>5.464596724521439</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09986698754122567</v>
+        <v>0.09986698754122554</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6679193630189409</v>
+        <v>0.6679193630189402</v>
       </c>
       <c r="H3" t="n">
-        <v>6.450694900735563</v>
+        <v>6.450694900735554</v>
       </c>
       <c r="I3" t="n">
-        <v>22.99634648990652</v>
+        <v>22.99634648990649</v>
       </c>
       <c r="J3" t="n">
-        <v>63.10373245083776</v>
+        <v>63.10373245083768</v>
       </c>
       <c r="K3" t="n">
-        <v>107.8543297731068</v>
+        <v>107.8543297731067</v>
       </c>
       <c r="L3" t="n">
-        <v>145.0234564309328</v>
+        <v>145.0234564309326</v>
       </c>
       <c r="M3" t="n">
-        <v>169.2355333403694</v>
+        <v>169.2355333403691</v>
       </c>
       <c r="N3" t="n">
-        <v>173.7146943318429</v>
+        <v>173.7146943318427</v>
       </c>
       <c r="O3" t="n">
-        <v>158.9150073933706</v>
+        <v>158.9150073933704</v>
       </c>
       <c r="P3" t="n">
-        <v>127.5433036277134</v>
+        <v>127.5433036277132</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.25932079518974</v>
+        <v>85.25932079518962</v>
       </c>
       <c r="R3" t="n">
-        <v>41.46958992498303</v>
+        <v>41.46958992498298</v>
       </c>
       <c r="S3" t="n">
-        <v>12.40630922098778</v>
+        <v>12.40630922098776</v>
       </c>
       <c r="T3" t="n">
-        <v>2.692183748308801</v>
+        <v>2.692183748308797</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04394206335650929</v>
+        <v>0.04394206335650924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5599611570895061</v>
+        <v>0.5599611570895053</v>
       </c>
       <c r="H4" t="n">
-        <v>4.978563742123066</v>
+        <v>4.97856374212306</v>
       </c>
       <c r="I4" t="n">
-        <v>16.83955916047352</v>
+        <v>16.8395591604735</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58925380622808</v>
+        <v>39.58925380622803</v>
       </c>
       <c r="K4" t="n">
-        <v>65.05730534185351</v>
+        <v>65.05730534185342</v>
       </c>
       <c r="L4" t="n">
-        <v>83.25095239128895</v>
+        <v>83.25095239128883</v>
       </c>
       <c r="M4" t="n">
-        <v>87.77645665176684</v>
+        <v>87.77645665176672</v>
       </c>
       <c r="N4" t="n">
-        <v>85.68932870261511</v>
+        <v>85.689328702615</v>
       </c>
       <c r="O4" t="n">
-        <v>79.14796427661494</v>
+        <v>79.14796427661484</v>
       </c>
       <c r="P4" t="n">
-        <v>67.72475667198897</v>
+        <v>67.72475667198887</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.88911107228583</v>
+        <v>46.88911107228576</v>
       </c>
       <c r="R4" t="n">
-        <v>25.1778898451336</v>
+        <v>25.17788984513357</v>
       </c>
       <c r="S4" t="n">
-        <v>9.758595801278025</v>
+        <v>9.758595801278013</v>
       </c>
       <c r="T4" t="n">
-        <v>2.392561307564252</v>
+        <v>2.39256130756425</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03054333584124582</v>
+        <v>0.03054333584124578</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353154</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.00178231822638</v>
+        <v>94.00178231822625</v>
       </c>
       <c r="K2" t="n">
-        <v>262.8487529817742</v>
+        <v>262.8487529817739</v>
       </c>
       <c r="L2" t="n">
-        <v>378.891795035613</v>
+        <v>378.8917950356127</v>
       </c>
       <c r="M2" t="n">
-        <v>438.364414966788</v>
+        <v>438.3644149667877</v>
       </c>
       <c r="N2" t="n">
-        <v>430.6778139960153</v>
+        <v>430.6778139960151</v>
       </c>
       <c r="O2" t="n">
-        <v>361.0327685546424</v>
+        <v>361.0327685546421</v>
       </c>
       <c r="P2" t="n">
-        <v>270.0781829432468</v>
+        <v>270.0781829432465</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.815690170987</v>
+        <v>124.8156901709868</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.3571411245799</v>
+        <v>62.35714112457983</v>
       </c>
       <c r="K3" t="n">
-        <v>234.4781278113264</v>
+        <v>234.4781278113263</v>
       </c>
       <c r="L3" t="n">
-        <v>377.3094219545178</v>
+        <v>377.3094219545176</v>
       </c>
       <c r="M3" t="n">
-        <v>492.806563168351</v>
+        <v>492.8065631683507</v>
       </c>
       <c r="N3" t="n">
-        <v>521.7153565920631</v>
+        <v>521.7153565920629</v>
       </c>
       <c r="O3" t="n">
-        <v>410.1810822256556</v>
+        <v>204.6580910181166</v>
       </c>
       <c r="P3" t="n">
-        <v>106.5086736457819</v>
+        <v>312.0316648533201</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.3548344450173</v>
+        <v>155.3548344450172</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>42.78781351597065</v>
+        <v>42.78781351597057</v>
       </c>
       <c r="L4" t="n">
-        <v>110.8409776516051</v>
+        <v>110.840977651605</v>
       </c>
       <c r="M4" t="n">
-        <v>127.3603336136074</v>
+        <v>127.3603336136073</v>
       </c>
       <c r="N4" t="n">
-        <v>129.8215010818437</v>
+        <v>129.8215010818436</v>
       </c>
       <c r="O4" t="n">
-        <v>103.7330921906546</v>
+        <v>103.7330921906545</v>
       </c>
       <c r="P4" t="n">
-        <v>65.00331593688246</v>
+        <v>65.00331593688236</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35021,10 +35021,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>588.3780682237978</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502554</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35422,7 +35422,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35431,7 +35431,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>867.4697571238452</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>427.0116978485618</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306615</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35814,16 +35814,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789359</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>472.8298519832985</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>685.3008529699231</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306615</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36051,16 +36051,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789359</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,16 +36121,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>351.1795253908721</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>897.0044190605943</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
@@ -36139,7 +36139,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306615</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36288,16 +36288,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789359</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>947.4478600927213</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306615</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36525,10 +36525,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36598,7 +36598,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,10 +36607,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>647.6020634880878</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36765,7 +36765,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
@@ -36838,16 +36838,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>725.0407592145528</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>900.2030395794358</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190282</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K34" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L34" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M34" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O34" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P34" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q34" t="n">
         <v>106.7905715667303</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>600.9126897531137</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37324,7 +37324,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>325.7333829678277</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597678</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190282</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L37" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M37" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N37" t="n">
         <v>373.2532791963767</v>
@@ -37479,7 +37479,7 @@
         <v>330.7494632514764</v>
       </c>
       <c r="P37" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q37" t="n">
         <v>106.7905715667303</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>210.3410945641418</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>858.941321607608</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37564,7 +37564,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597678</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190282</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K40" t="n">
         <v>234.4439925731562</v>
@@ -37707,16 +37707,16 @@
         <v>348.1537051990347</v>
       </c>
       <c r="M40" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O40" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P40" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q40" t="n">
         <v>106.7905715667303</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>677.9246260636939</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>438.9348948086467</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597678</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190282</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
@@ -37944,16 +37944,16 @@
         <v>348.1537051990347</v>
       </c>
       <c r="M43" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O43" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P43" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q43" t="n">
         <v>106.7905715667303</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>637.1622984715872</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38035,10 +38035,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>416.9469691860681</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609564</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190282</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K46" t="n">
         <v>234.4439925731562</v>
@@ -38181,16 +38181,16 @@
         <v>348.1537051990347</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O46" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P46" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q46" t="n">
         <v>106.7905715667303</v>
